--- a/500all/speech_level/speeches_CHRG-114hhrg95131.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95131.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order, and I would now like to recognize myself for an opening statement. Before I do, I will mention that votes will be called during this hearing, and we will adjourn. We will see how far we get, and then we will adjourn and possibly come back. And if we get far enough, we may just adjourn the hearing all together. But we will just see how far we get.    Also, I want to ask unanimous consent for Tom Rooney from Florida, to sit on the dais when he gets here and offer a statement.    Without objection, so ordered.    As a businessman who is involved in the real estate industry, I have a keen level of interest in today's subcommittee hearing to examine the issues of property rights in Cuba, and U.S. and Cuban property claims against the Castro regime. I believe that in the Obama administration's zeal to engage the Castro regime at any cost, we have lost sight of a critical issue that has not received the priority that it deserves. Thousands of Americans and Cuban citizens suffered humiliation and financial distresses of having their private property stolen from them, some of them at gunpoint. Today there has been no justice for that their claims.    Lest we forget, I think it is important for the American people to remember what led in part the U.S. embargo against Cuba. In 1959, Fidel Castro brutally seized power and quickly nationalized the American-dominated sugar and mining industries. He froze bank accounts and confiscated property from thousands of both Cuban and American citizens and businesses in what the Inter-American Law Review called the largest uncompensated taking of American property by a foreign government in history.    This stealing of American private property in part led the U.S. severing diplomatic relations with Cuba in 1961 and enacting a trade embargo and sanctions. In 1964, President John F. Kennedy signed a bill into law authorizing the U.S. Foreign Claims Settlement Commission to begin a Cuba program to address the claims of U.S. citizens against the Castro regime. Since that time, the Commission has adjudicated almost 8,900, 8,900 U.S. claims, finding almost 6,000 of those claims to be certified. When we look at the financial value of these claims today, the total cost comes to over $6 billion.    Now the Obama administration's reengagement with the Communist Castro regime, restoration of diplomatic ties, and pursuit of normalized relations have been performed ostensibly to empower the Cuban people. However, I have not seen any evidence of things getting better for the Cuban people. In fact, since December's announcement, we have seen almost a 120-percent increase in the number of Cubans fleeing to the United States; over 3,000 political arrests by the Castro regime; spikes in violence against democracy activists; and re-arrest of most of the 53 political prisoners who were released as part of the December agreement.    The American people who decided to travel to Cuba under the relaxed Obama administration rule should at least be aware that their decision to spend money on Cuban hotels, tourism, rum, or cigars directly props up the Communist military intelligence services and human rights abusers in the Castro regime. Americans should know that the hotel they vacation in may very well be a property that was stolen from an American citizen.    As I stated at our last subcommittee hearing on Cuba back in February, I strongly oppose the Obama administration's decision to normalize relations with the oppressive Communist Cuba Castro regime. U.S. law requires a change of the very nature of the regime through the establishment of democracy and allowance of freedom. U.S. law also requires the resolution of property claims issue.    In 1996, Congress expressed its intent in the Libertad Act stating that the satisfactory resolution of property claims by the Cuban Government recognized by the United States remains an essential condition for the full resumption of economic and diplomatic relations between the United States and Cuba. That Libertad Act is not being followed by the Obama administration.    If we are truly going to reengage with the Communist Castro regime, then I believe it is critical that we not only follow U.S. law, but for the purposes of upholding the rule of law worldwide, we negotiate only from a position of strength on the issue of property claims. Should we fail to do that, I fear that we would be setting a terrible example and signaling to other bad actors around the world that they will face no consequences for stealing American property. This would be a terribly harmful message to send.    Last year I had the privilege of traveling with the full committee Chairman Royce, Ed Royce, and Ranking Member Engel in a bipartisan delegation to South America, where we visited some of our best partners in the hemisphere, including Colombia and Peru. During our visit to Peru, I was personally delighted to sit with award-winning Peruvian economist Hernando de Soto one evening over dinner. Hernando is known best for his work on the informal economy and on the importance of business and property rights. The main message of de Soto's work and writings is that no nation can have a strong market economy without adequate participation in an information framework that records ownership of property and other formal economic activity.    It is in this spirit that I wanted to convene this hearing today because, in Cuba, most of what passes for economic activity is simply informal opportunities for the Castro brothers and the Cuban military to siphon off money to prop themselves up, spy on their people, deny basic human rights, and beat and torture people who disagree with them.    So, in conclusion, the future of property rights in Cuba and the issue of U.S. claims against the Communist Castro regime should not be forgotten in any U.S.-Cuba reengagement. These issues impact not only U.S. business claimants with the highest amounts of certified law, such as Cuba Electric Company, North American Sugar Industries or Moa Bay Mining Company; these issues also have devastated individuals and families for generations.    Today I hope that experiences that the witnesses will share will inform our actions, offer constructive ideas on what a responsible and just outcome on this issue would involve, and motivate the Obama administration to prioritize the needs of the American people above a legacy achievement with the Communist Castro regime. This hearing could not come at a more important time as recent press reports have indicated that the Obama administration has already made key concessions on limiting American diplomats' activities and a possible future Embassy in Havana, which follows its removal of Cuba from the State Sponsors of Terrorism list last month even though Cuba continues to harbor terrorists and proliferate weapons to bad actors around the world.    With that, I look forward to hearing from our two panels of witnesses today, and I will now turn to the ranking member, Mr. Albio Sires, for his opening statement.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, and thank you for holding this hearing. And I strongly concur with a lot of the comments that you made.    We are here to bring attention to how the Castro brothers have confiscated thousands of properties from U.S. companies and Cuban citizens in the early years of the revolution. Before the expropriation began, over two-thirds of the Cuban economy was owned by private entities, many of whom were Americans. The Castro brothers started taking ranches and farms just months after Castro came into power and quickly moved to U.S.-owned oil refineries and other properties.    Castro seized everything in sight, including 2 million acres of land, electric companies, the mining industry, warehouses, hotels, private properties, and bank accounts. Additionally, they seized almost all assets of Cuban nationals between 1959 and 1968.    The Foreign Claims Settlement Commission has certified over 5,000 claims and, when combined with interest, total almost $8 billion. As the administration continues to normalize relationships with Cuba, we must take time to reexamine these claims and see how we can get justice for these claimants before further inroads are made between Cuba and the U.S.    Many of the confiscated properties have been sold and resold, their owners deceased, and now their families are left fighting on their behalf. Most families were never able to recover either financially or mentally. Being forced to give up their homes, essential belongings, and millions of dollars worth of investments cannot go unanswered.    How can U.S. businesses open up economic cooperation with a government who profited on the back of other people's hard work? Not only is it immoral to profit off of these stolen properties, but Cuba's past disregard for property rights creates an unstable investment climate for private businesses. There is no way to ensure that the Cuban regime won't swoop in and confiscate more properties or renegate--or renege on its so-called contracts. We must examine how a shift in relationship with Cuba will impact these long outstanding claims.    The issue of confiscated properties by the Cuban regime has always been a major hurdle in normalizing the relationships with Cuba. Just because the administration has shifted the strategy doesn't mean we should detract from our effort to find an equitable and long overdue solution for the victims. Today we will be able to hear from experts from the Foreign Settlements Commission that have gone through the efforts of certifying these claims as well as victims whose families have lost their homes and businesses to the Castro regime's greed. I look forward to hearing from our panelists on how we can address these critical issues.    Thank you.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rooney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rooney. Thank you, Mr. Chairman, and I will be brief. I will just say that I appreciate you having this hearing to the panel members that are here. You know, what brought this about for me was, as a Member of the Florida delegation, going to law school at the University of Miami and getting to meet some of the constituents or some of the citizens that lived down there and coming to recognize that as naive as I was at that point, that a lot of the people that I met were actually people that lived in Cuba, that left--that the ranking member was speaking of--thinking that some day, some day soon after they left Cuba, that they would lock their doors and that they would be back relatively in short order.    And it just dawned on me talking to these people, who are a little bit older now, that they really believe something that if that would happen to American citizens, something so fundamental that you owned this property or you owned this business, and for whatever reason, you had to leave, and you turned around and locked the door behind you thinking that I will be back in a couple of days or a week or at the most, you know, a month, but that that which I built, that which I owned, something so dear to us as Americans as our property rights, would be mine again. And to have that decades, decades go by, and to not be able to return to that which is rightfully yours, for us to say that we are going to ease restrictions in Cuba and not follow the law, as Mr. Duncan referred to the 1996 Libertad law, I think would be unconscionable and something so unfair as we know it as Americans is to deprive people of their rightful property.    And a lot of people, even people on my side of the aisle, sometimes say: What is the difference between Cuba and China and other Communist countries that we do business with? I mean, after all, it has been a long time. Let's just forget about it and move on.    The difference is that I have constituents, people that are alive and well, that owned property in Cuba, that left, that live in the State of Florida, that belief that our Government will take care of them, that are citizens now, but when they ease restrictions with Cuba, that when we do that as a government, we are going to follow U.S. law, and we are going to demand that this President first recognize by forcing the Castro regime to recognize the property rights of those people that are still alive today, living in Florida, that are constituents, and that it is our responsibility as their elected officials to make sure we follow the law.    So when people ask you, ``What is the difference between China and other Communist countries that we do business with and Cuba?'' the difference is, is that they are our constituents, and we owe it to them to enforce the law, to follow the law, and to live the American spirit, which is property rights. That goes back to our very founding. And if we don't do that, then we are, I think, neglecting the very fabric of what this country is.    So I really appreciate as we--as this administration decides to move forward in easing restrictions, if they are going to do that, the very first step in making what past wrongs there were right would be to make sure that our constituents in the State of Florida and across this country are made whole again by that which was taken from them, their property in Cuba.    So, Mr. Chairman, Mr. Ranking Member, thank you for letting me sit in today. I appreciate you hearing this bill.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. I want to thank the gentleman from Florida for his comments and remind other members that opening statements may be submitted for the record.    Before I recognize the panel, let me just explain the lighting system. You have got 5 minutes. The light will be green until it gets to 1 minute. It will turn yellow, and then when you are out of time, it will be red. At that point in time, if you could just wrap up your final statement. And you have submitted your testimony for us beforehand, which we have had the opportunity to read, and so if you don't get through the complete statement, we have it. We have read it. We are understanding.    But we want to get you on the record verbally, so I will now recognize our panelists, and our first panelist is Mr.--if I pronounce this wrong--Tamargo.</t>
   </si>
   <si>
-    <t>Tamargo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tamargo. Tamargo.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t xml:space="preserve">    Mr. Duncan. I thank the gentleman.    In my haste, I failed to mention the biographies of the witnesses and panelists are in our binders, and we have had the opportunity to read through those.    Mr. Bradley, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Bradley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bradley. Yes, sir. Thank you. Good morning, Mr. Chairman, members of the subcommittee, thank you for inviting me. You have my bio, so you know I retired from Federal service in 2008 after 20 years as chief counsel with the Foreign Claims Settlement Commission. I am pleased to be invited here today to say some words about the Commission's Cuba claims adjudication program.    As we know, following the overthrow of the Batista regime in Cuba and Fidel Castro's takeover on January 1, 1959, the Castro regime began a comprehensive drive to seize business enterprises, assets, and other private property on the island. Given the extensive American involvement in Cuba's economy at the time, American companies and individuals were particularly affected by these actions. Some of the takings were overt, such as the outright nationalization of certain industries under law 1076 of December 5, 1962, and the expropriations under law 851 of July 6, 1960, which were directed toward Cuban concerns in which Americans held majority interest. In addition, all properties of persons who had left Cuba were confiscated under law 989 of December 6, 1961.    Other takings were more subtle such as administrative requirements placed on mining and oil concession holders to reregister their concessions under circumstances that made compliance impossible.    One of the first U.S. responses to these actions was an effort by Senator Bourke Hickenlooper to amend the Foreign Assistance Act of 1961 to impose a trade embargo on Cuba and prohibit the furnishing of foreign assistance to the ``present Government of Cuba.'' However, the amendment was not enacted, and the Department of Treasury did not move to freeze Cuban assets in the United States until July 1963. Consequently, most of those assets, possibly as much as $500 million had already been transferred out of the country, primarily to Canada, by the time the blocking took place.    In October 1964, Congress passed, as you mentioned, House of Representatives bill H.R. 12259, which became Public Law 88666 and is codified as title V of the International Claims Settlement Act of 1949, as amended. The statute authorized and directed the Foreign Claims Settlement Commission to determine the validity and amount of U.S. nationals' claims against Cuba for expropriation and other taking of property and other assets affected on or after January 1, 1959, and certify its findings of the amounts of the losses sustained to the Secretary of State. In addition, the Commission was authorized and directed to determine the validity and amount of claims against Cuba for disability or death of U.S. Citizens resulting from actions taken by or under the authority of the Cuban Government.    The purpose of the adjudication process was to compile a record of the claims which could eventually serve as the basis for a lump-sum settlement agreement with a future Cuban Government. The period for filing claims officially commenced November 1, 1965, and was to end on May 1, 1967. By law, the program was to be completed as of May 1, 1970. However, due to budget cuts from Fiscal Year 1969, the program could not be completed by the statutory time, and further legislation was finally obtained which extended it to July 6, 1972.    As has been mentioned, a total of 8,816 claims were evaluated in the course of the program. Of these, 5,911 were certified as valid with a total value of over $1.8 billion, not including interest. Adding the interest component, the claims come to over $7.6 billion in worth.    I should also mention that two small--two additional claims were certified by the Commission in 2006 in a small second program we conducted at the request of the Secretary of State. Of the claims, over $1.6 billion was certified in the names of 898 American corporations, with 5,913 totaling $221 million certified in the names of individuals.    We had 131 certifications in excess of $1 million, and the largest certification, in favor of the Cuban Electric Company, amounted to over $267.5 million in principal amount.    This concludes my statement, and I will be happy to try to answer any questions you may have.</t>
   </si>
   <si>
@@ -199,9 +184,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Thanks to the witnesses.    You know, it is puzzling to me dealing with the Cuba issue. We deal a lot with the Iran issue on this full committee, and it seems to be that the policies that the administration pursues are basically unilateral concessions to bad regimes. And, really, that serves as a detriment of the populations in those countries.    I mean, in Iran, there is a green movement that was really threatening the viability of the regime. The administration chose to not embrace that because they wanted to try to have a better relationship with the ayatollahs, and what we have seen since then is us engage in a lot of negotiations on a nuclear issue where it has been concession after concession, and it doesn't seem like we have received much as a result.    And I think the same thing with the Cuba issue, the policy is really a lifeline to the Castro regime and to the brothers and to the military. It is not doing anything to benefit the Cuban people. It is further solidifying the regime, and we are not getting, I mean, what have we received in the United States for these new policies? You know, we haven't received anything of note. They are still harboring terrorist fugitives in Cuba, people who are enemies of the country.    So it is really, really frustrating and the property to me is just an easy issue because if you are having a new relationship and you want to have--and the regime is going to move toward openness, well, obviously, you give back the property. I mean, to me, that is just a bare minimum. And we haven't seen any property given back.    So this whole policy, I think, is not going to be successful, just as the Iranian policy is not going to be successful. I know that we are going to be voting, and I know we have another panel, so I really appreciate your testimony, both of you.    I will go ahead and yield back the balance of my time so we can move forward.</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>412672</t>
   </si>
   <si>
-    <t>Daniel M. Donovan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Chairman.    That is the chairman's way of telling me be very brief. As my friend from Florida just said, there are people like Joanne Chesimard, who have escaped the justice system of our United States after killing a New Jersey State trooper, and we are not demanding her return before we negotiate. And the poor people of Cuba whose human rights are still being violated; we are not asking for anything in exchange. It seems like the regime is making all of the demands on our country.    So I just wanted to thank you first for coming here and addressing this important issue for the Cuban people, the residents there, and ask if you think there is anything else. I mean, you are well aware of what Congress is doing to try to rectify this wrong. Is there anything else that in your opinion should be done by this legislative body that will help this process along?</t>
   </si>
   <si>
@@ -235,36 +214,24 @@
     <t xml:space="preserve">    Mr. Duncan. We will go ahead and reconvene the hearing and welcome our second panel. Their biographies are in the information provided to the committee beforehand.    I will go ahead and recognize Dr. Garcia-Bengochea.</t>
   </si>
   <si>
-    <t>Garcia-Bengochea</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Garcia-Bengochea. Thank you and good morning.    My name is Javier Garcia-Bengochea. I am a neurosurgeon in Jacksonville, Florida. I'm here not to discuss the litany of atrocities emblematic of Cuba under a Castro but to testify about the importance of property. It is sufficient prologue to say that, in Cuba, virtually everything is stolen.    My family left Cuba when I was 15 months old, after Fidel Castro confiscated 386 Cuban businesses on October 14, 1960. One of these, La Maritima Parreno, established in 1919, was a commercial shipping port and warehouses in Cuba's second largest city, Santiago, and a privately held Cuban corporation in which we had significant ownership.    La Maritima and its president, my cousin Desi Parreno, had supported the revolution in its difficult early days. Fearing arrest if he challenged the dictatorship, Desi left Cuba the following day, having transformed from progressive to conservative overnight.    A Princeton graduate and valedictorian of his 1938 class, Desi was no rube. He understood the impact of the confiscations on the rule of law and order. Like my parents, he feared civil war. Four days later President Eisenhower initiated sanctions that became the embargo. Eventually, Desi's brother, Alberto, an American citizen and New York lawyer would receive certification from the U.S. Treasury for his loss.    The world would isolate Cuba only to resume relations after settling the relatively small international claims. The claims of Americans and Cuban nationals, by far the largest groups, remained unsettled. These are the very reasons for the embargo, yet, incredibly, until today, they have yet to be mentioned, despite that Cuba has confiscated billions in foreign assets and incarcerated dozens of foreign executives, some without charges since 2008 alone.    Americans assume when they invest in Cuba clear title and basic protections will be in place. Nothing could be further from the truth. Contract sanctity, an independent judiciary, and transparent regulatory and enforcement agencies do not exist there.    Every American enterprise in Cuba, including tourism, will necessarily traffic in stolen properties, including brands and trademarks, maybe those of an American.    That has certainly been my experience. The State Department, for example, has occupied a penthouse apartment since 1977 in a building I own without my permission, much less payment at least.    At least two groups, Smith College and The Met, have received licenses to traffic in my port property.    Countless licensed travelers have paid admission to Havana's Museum of Fine Arts to view paintings stolen off the walls of our home.    Foreign entities Fred Olsen Cruise Lines and China Harbor Engineering Company do business in the U.S. while using my stolen port.    How is that right or even legal? The claims must be settled, or there will be conflict. Although Cuba is bankrupt, there are ways this can be accomplished. They can simply return the property, despite the unsavory proposition of partnering with totalitarians.    Cuba can pay with earns from state-owned tourism, rum, art, and tobacco sales. Remittences to Cuba supporting ventures using stolen property could be taxed. Anti-trafficking laws should be robust and enforced, like title IV in the visa application. Title III of Helms-Burton should no longer by waived. If a foreign terrorist who damages our property abroad can stand trial in U.S. court, so can foreign traffickers.    If Congress eliminates the embargo and leverages without a fair settlement, then the U.S. Government should contribute. So-called business groups such as Engage Cuba and the U.S. Chamber of Commerce, who disgracefully lobby to lift sanctions without considering the claim, should pay, as well as companies who profited from sales allowed to Cuba since 2003.    The claimants can receive tax credits and effectively pay themselves. The marketplace should be created to permit competitive bidding for the claims. When change, democracy comes, joint ventures and contract between the regime and foreigners will be canceled. Confiscated properties will be returned to the rightful owners.    Unfortunately, American enterprises that capitulate with Cuba's dictatorship will oppose change. We have linked their success to the survival of the Castro regime.    I will finish with an encounter in Cuba 2 years ago. Before the revolution, my father was Cuba's premier neurosurgeon and considered a pioneer of modern neurosurgical training there. I was invited to speak in a neurosurgery meeting in Havana, and after initially declining, I decided to attend. Ignatio, which is not his real name, owned a taxi service of vintage American cars. He was an IT specialist at a foreign firm in Cuba that closed after being robbed by the regime who overlooked turning off his Internet connection. He ordered parts online from the U.S. Brought in by mules and impeccably rebuilt his 1959 Bel Air. Upon congratulating him for his success, he expressed deep concern that, as others made money and spent conspicuously, they, the government, would confiscate everything ``when it was no longer convenient for them.'' In a surreal yet transcendent moment, he admitted he had become ``what you call in your country a conservative.''    Ladies and gentlemen, what is past is prologue. Unless the claims are settled, any American enterprise in Cuba will have the legitimacy of a drug deal. Trafficking and stolen property is not economic opportunity. It is not pro-business or normal. It is criminal and immoral. Property rights are the foundation of our economy and society. They promote competition through nonviolent and lawful means and define our human rights. Without them, there is no capitalism or economic development. A just claims settlement will protect future American businesses in Cuba and burgeoning Cuban entrepreneurs.    The strength of our relationship with Cuba will directly correlate with the strength of the claims and settlements. Indeed, these claims are a litmus test of government and civil society itself. Validating the kleptocracy will undoubtedly bring more confiscations and the prospect of sanctioning Cuba, an embargo, again. To paraphrase the prophet Isaiah: Peace is the work of justice, so too is normalization.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. I want to thank you for that testimony.    I want to thank all the witnesses for sharing their stories with us today.    I recognize Ms. Chester lamb.</t>
   </si>
   <si>
-    <t>Chester Lamb</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chester Lamb. Thank you, Chairman Duncan, Ranking Member Sires, and members of the committee for your leadership and attention to this matter to Americans and throughout the United States. We have been waiting a long time.    My name is Carolyn Chester. I live in Omaha, Nebraska. I am a single, divorced mother of one teenaged son. And I have been the sole supporter of my family since 2010. I have a modest house. I live a modest lifestyle. And I drive a 16-year-old car.    I represent my family's claim, number 1704. My father was Edmond Chester, and he was the director of CBS News. But most of you probably have never heard of him. My father supervised famed reporters, such as Edward R. Murrow, Eric Sevareid, and Howard K. Smith, all recognizable names, but not his.    My father a true patriot and combatted communism as a soldier in World War I and an executive with CBS when he worked with our State Department's Office of Inter-American Affairs' Voice of America. When the Communists took Cuba, they also took over the radio stations, TV stations, newspapers, and they were able to manipulate and rewrite history. That is when the lies an slanders of those who were in Cuba before 1959 started.    My father's best friends were all patriots, and one of them was my godfather, General T. McInerney, who served as lieutenant colonel under General Eisenhower's staff and the director of public relations for the U.S. Department of Justice. Excuse me, I am a little nervous.    I was just 6 months old when my family's properties were taken. So I refer to the letter that my father wrote to the Foreign Claims Settlement Commission, which explains the circumstances. Their property was actually taken in January 1959, before Castro created laws to make it legal to steal. They took an 80-acre farm from the Isle of Pines, Cuban telephone stock, our cars, jewelry, furniture and all our personal possessions that were in our apartment in Miramar. My parents spoke frequently about Cuba and what happened to them, and they thought justice would be served during their lifetime, but it was not.    There was a time that our legislators and fellow Americans cared, but with time and memories passing, the confiscation has faded. It is almost as if the event has been erased from time and history. However, this still happened. It is very real, personal to us and just because it happened a long time ago does not mean it didn't happen because it did.    I know from speaking to people about the U.S. certified claims that most don't understand anything about it, but it is very simple: We are Americans who were living, working investing in Cuba when the Communists took over and took our properties. We were not at war with Cuba, and this was the first time in U.S. history that American properties were expropriated during peacetime. Families lost their livelihoods and suffered financial ruin for the loss of their possessions. Castro didn't just confiscate out properties, but he also took the hopes, dreams that our parents once had for our future. Excuse me.    The confiscation also affected my father's health. I was only 11 years old when his health began to decline. I remember that my father was in and out of hospital many times over the years, and my mother took care of him for many years, always hoping that he would improve. But he did not. Edmund Chester died 1973 when I was 15 years old. I never really knew what he died from, but looking back at it, I think it was from the Cuban loss and the stress. It caused him a series of strokes, and he also suffered from bouts of confusion. I remember one incident when I was just a little girl. He was frightened because he thought Castro's henchmen were in the house wanting to kill him, but nobody was there.    So it was not until much later on in life that I understood why he was so scared. In 1959, a group of Castro's men shot at our home as they drove into our driveway. I remember hearing about this when I got older, and I also remember seeing the bullet holes wall in our wall of our family home in Mount Dora, Florida. So his paranoia was not unwarranted.    After my father passed away, my mother was left alone to raise her children without any source of income. My mother did the best she could, and in the end, she sold everything, including personal items to survive and support us. We never faulted her for selling our inheritance in order to make ends meet. And in the end, we were left with debt to pay back her creditors. We didn't abandon our properties. They were taken from us. And in many cases, claimants' properties were taken at gunpoint by Castro's soldiers.    We didn't have any warning by our Government that the new Cuban Government was planning to steal our properties, yet apparently Castro's manifesto was writ 10 years ago and published in Mexico. He threatened that he would do this, and he did. And our Government failed to protect us, and now some 55 years later, here we are defending our claims. We are Americans who were the victims and not the culprits.    The notion that claimants should discount their claims in order to make way for commerce is unacceptable. We are not responsible for the economic failures of the communism since we have already paid with our family fortunes. Furthermore, punitive damages for the pain and suffering that this has caused our families, along with 55 years of waiting, should have been included in this determination of the value of our claims.    All foreign businesses have 50/50 partnerships with the Cuban Government, so that means profits are being split. So the United Kingdom and Canada, who are our allies, have enacted laws to protect their Cuban investments from our Helms-Burton Act. When a foreign company operating in Cuba opts--pays their workers' salaries, it must all go to the Cuban Government, who keeps 96 percent of it, leaving their worker with a pittance of their salary, and so they are treated as slaves.    The Cuban Government also collects loss of money skimming off the remittence sent by Cuban Americans to their relatives in Cuba. The Cuban Government does have a way to pay us back. They just don't want to because they are used to taking.    I know that many will still think that the Cuban Government is poor, and that's fine. But you must realize that once the floodgates of trade with the U.S. opens, there will be means to pay us back, and we will accept payments, as long as it is paid back in full.    It is also very disturbing for me to hear that those working uncomfortably close with the Cuban Government--Americans--tell us that we should only get pennies to our dollar. It is well-known fact that the junta running Cuba has hired expert international accountants and lawyers to hide their fortune in offshore accounts that can never be traced. Our Office of Foreign Asset Control has collected billions and billions in fines from banks and businesses that broke our laws. So a portion of that money should have been used to pay back the Americans.    Another solution would be to get another entity to pay our debt. There are a lot of U.S. conglomerates that are biting at the bit to do business with the Cubans. And if they want to get rid of us because they cause an obstacle, they should just pay--buy our debts and deal with the Castros themselves because we have been dealing with it for 55 years.    There is also Cuban money that was frozen a long time ago that should have been part of the legislation. But that was admitted. All we want is our payment for our claims set by the Foreign Claims Settlement. And I think 55 years of a lifetime is waiting too long.    Thank you for your attention in this matter. I am finally feeling like someone gives a damn. God bless you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Ms. Chester Lamb.    Ms. Rosoff, 5 minutes.</t>
   </si>
   <si>
-    <t>Rosoff</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Rosoff. I'm here on behalf of my family, especially my mother, who is 80 and could not be here today. I am representing the three certified claims my family has filed with the Foreign Claims Settlement Commission.    Thank you, Mr. Chairman and members of the committee for the opportunity to share my family's story.    My grandfather, Morris Schechter, later called Mauricio, moved to Cuba in 1902. He started a business and was a founding member of the United Hebrew Congregation in Havana. In 1913, he married my grandmother, Jeannette, and they became pillars of the Cuban American Jewish community. Jeannette and Mauricio had four children, two of whom died in Cuba and are buried in Guanabacoa Jewish Cemetery that Mauricio helped consecrate in 1910.    My grandmother's house is the main part of CU-1458. My cousin, Robert Schechter, visited Cuba as part of a mission trip several years ago and was actually able to visit the house. At the time, and as far as I know to this day, it was being used by the Chinese Embassy. Claim CU-1090, filed by my father, Roy, is based on the value of stocks and business holdings, including a shirt factory and wholesale business, a farm, and a portion of my grandmother's house.    My father born June 1924 and attended Ruston Academy, a bilingual school. He later attended the University of Michigan but soon enlisted in the U.S. Army and fought in the Pacific theater during World War II. He returned to Cuba after the war and worked in the family business Compania Onyx, which manufactured clothing.    My father took over the business following the death of his father and older brother. In 1957, he married my mother, Lois Levine, and she joined him in Cuba. My maternal grandfather, Herbert Levine, also invested in Cuba and formed Rainbow Development Corporation, claim CU-611. This claim is comprised of attractive land that had timber and very pure silica sand. They grew tobacco, tomatoes, and built a saw mill that provided jobs for local residents. The Saw Mill was sabotaged during the revolution and set on fire. My mother said they think it was because they were Americans.    The last time my parents went to the farm, planning to do the payroll, they were met by armed soldiers, and after a brief discussion with them, my parents drove away, never to see the farm again. Immediately after the revolution, business was actually good. In fact, my father invested money in updating machinery at the factory. After about 6 months, however, Castro imposed regulations that made it impossible for the factory to be productive. Essential commodities, such as buttons and bindings, were impossible to find since they couldn't be imported. So they had no means to really make a living anymore.    Leaving Cuba was a very difficult decision for them, but since they couldn't make a living, they really felt they didn't have a choice. They paid off all of their debts so that when they could one day return to Cuba, they would be in good standing. They left on one of the last ferries to Key West in April 1961, taking only clothes with them.    My mother hid her wedding ring in a cloth diaper she stained with vanilla and smuggled it out in my brother's diaper bag. She figured that if the soldiers wanted to search a dirty diaper bag, they were welcome to her ring. They ended up in Nyack, New York, staying with my mother's parents.    My father had great difficulty finding a job and eventually went to work in my grandfather's shoe store. I grew up knowing that my father hoped he would one day return to Cuba, but he passed away in 2004. And I know a part of him is still in Cuba.    My grandmother, Jeannette, didn't plan on leaving Cuba, since her husband and two children were buried there in Guanabacoa. She left on what she thought was a vacation, but the political climate changed while she was in the States with family, and she couldn't return.    My grandmother was in her seventies, frail, and had left her home with virtually nothing. She settled in Miami and lived with her&lt;greek-l&gt;e deg. sister-in-law where they lived very frugally in a small apartment. She spent last years in a nursing home and passed away at the age of 96, heartbroken that she never returned from her vacation.    I would love to reclaim ownership of my grandmother's house. It is truly a family legacy and has great sentimental value to us. I don't know how realistic that is, but as far as the other two claims, I think that a fair, just financial settlement may be the best outcome. My father and grandmother had their homes, businesses, property, and investments stolen from them. There is no way to quantify it. Their lives were redefined without their consent and multiple generations of our family have been affected. When my father filed the claims, it was in good faith that they would be honored and settled fairly.    We look to you as our Representatives to champion--not just a new chapter in the political playbook--but to work side by side and as innovators in advocating justice. There is bound to be burgeoning opportunity in Cuba in the next few years, but it should not be at our expense. In this way, perhaps a plan can be crafted that ensures fair compensation to those of us who had property seized while also allowing investment in a brighter future for the Cuban people.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you so much for that testimony.    Ms. Anna-Lee Stangl.</t>
   </si>
   <si>
-    <t>Stangl</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stangl. Good morning, thank you so much, Chairman Duncan, for allowing me to give this testimony this morning. And thank you to all those in attendance for your attention to this important issue.    Before I begin my testimony, I would like to ask that a set of letters from Cuban pastors to you, Chairman Duncan, be entered into the record.    Religious groups of all types, Catholic and Protestant as well as other religious groups in Cuba, saw many of their properties confiscated in the years following the revolution. The return of some of these properties has been a key focus area of talks in recent years between the Roman Catholic Church and the Cuban Government.    Other religious groups have also held dialogues with the Cuban Government with the same objective with varying degrees of success.    In recent years, the churches most vulnerable to the threat or act of government confiscation of their property have been what are usually referred to as house churches. Many are actual houses that have been converted by the owner at some point into a church. Others are buildings built more recently on private property and used exclusively as churches but without permits for religious activity.    Properties linked to unregistered religious groups are particularly vulnerable. One emblematic example have been the property located at Avellaneda 278 between San Esteban and San Martin Streets in the historic city center Camaguey. This property was acquired by the Reverend Omar Gude Perez and his wife Kenia Denis Bravo in 2003. A relatively large property for the location, it has acted as family home and place of worship. It is also a training center for church leaders from across the country who are affiliated with the Apostolic Movement, a charismatic Christian network of churches that authorities have refused to register.    Before leaving the country in 2013, having received asylum in the United States, Reverend Gude and wife officially transferred the property to their nephew, Reverend Yiorvis Bravo. The transfer was carried out legally, in line with Cuban laws. The transfer papers were in fact signed by government notary. Reverend Bravo Denis was already living in the property with his wife and small child and subsequently took over the church and religious training center.    In September 2013, the government summoned Reverend Bravo to a court hearing where they summarily found his ownership of the property to be invalid, despite the paperwork provided, and declared it belonged to the government. The government notary who had signed off on the transfer did not appear. Reverend Bravo refused to vacate the property and was subject to a day's long active repudiation.    Shortly thereafter, Reverend Bravo was summoned by housing ministry officials, who offered to allow him to stay on the property as a rent-paying tenant to the government if he agreed to submit all planned religious activities to the government in advance. The government set the rent for his own property at $300 per month, 15 times the annual salary for a Cuban.    He turned down this offer, refused to sign the papers, and stated his intention to remain in the property. To date, he has managed to do so, although the government has repeatedly declared that it still considers itself to be the owner of the building and reserves the right to evict the family any time. We believe they have not been evicted by force thus far because the case has received international attention. But the vulnerability of the family, who have been stripped of property rights, remains of great concern.    This year on May 21 the legal offices of Poblete Tamargo submitted a request for precautionary measures on behalf of Reverend Bravo to the Inter-American Human Rights Commission. Both Reverend Omar Gude and Yiorvis Bravo have submitted letters, which I mentioned earlier.    We regularly receive reports of threats of confiscation of properties from unregistered religious groups, such the Apostolic Movement, but the government is also guilty of targeting the property of historic and registered religious groups. The threat or act of confiscation of church properties has often appeared to be a tactic of the government to pressure or punish a church or larger denomination.    One of the most egregious cases was the 2012 retroactive nationalization of the historic property belonging to the Baptist Church in Yaguajay in the Province of Sancti Spiritus. The church is part of the Western Baptist Convention of Cuba, one of the largest historical and registered denominations in Cuba.    More recently, CSW has received worrying news that new legislation, which came into effect in January of this year, is being used to justify the arbitrary expropriation of private property, including religious properties. On the surface, legal decree 322, the general law on housing, appears to be meant to regulate private properties, mostly homes, and enforce zoning laws, following other reforms that affect property rights.    However, our contacts on the island say that the law is being used by government officials to claim the right to seize church properties and to force the churches into the role of paying tenants. You may recall this is identical to the offer made to Reverend Bravo in 2013 prior to the adoption of the law, which suggests that it is a strategy that has been in development for some time.    Cuban lawyers have told CSW that although the law does not specifically mention religious groups, government officials have claimed it gives them authority to expropriate property when they deem it necessary. To our knowledge, the largest church to be effected thus far by legal decree 322 is the Maranatha First Baptist Church in Holguin. This is another registered and historic religious property. Last month, the leadership of the church was informed by provincial Communist Party officials and housing ministry officials that their property was being confiscated and their status changed from owners to renters. The church has held title to the property since 1947, originally through the American Baptist Home Mission Society of Cuba, and was officially registered as part of the Eastern Baptist Convention of Cuba in May 1954. Leaders of the church have published an open letter calling for support as they resist government attempts to seize their property.    I am humbled to be here today, speaking on behalf of Cuban men and women who have for generations now maintained and cared for religious properties which have been and are sanctuaries for hundreds of thousands of Cubans in the face of great pressure and open hostility.    While this is a historic problem, it has not solely affected religious properties. It is also a current problem of ongoing violations. Much attention has been given to Raul Castro's announced property reforms, but less attention has been given to the detail of these reforms and their impact, potential and real, on ordinary Cubans. This subcommittee has a key role to play in putting a spotlight on those details and highlighting how, even today, Cubans continue to be vulnerable to the arbitrary expropriation of their property by government.    Even as the administration continues to pursue a dialogue with the Cuban Government, it is key that human rights, including property rights and religious freedom, be a central component of that dialogue. I would respectfully ask that the members of this subcommittee continue to hold the administration accountable for the content of the dialogue and any agreements. And at the same time, you make it clear to the Cuban Government, through statements or letters, these actions are not going unnoticed. Thank you.</t>
   </si>
   <si>
@@ -274,9 +241,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho [presiding]. I appreciate your being here and testifying. And I hear your stories, and it rips at the heartstrings. And, you know, being here on this panel of Foreign Affairs, over the last 2 years, we have heard these stories about Cuba and what is going on. And I find it disheartening that this administration announced normalizing relationships with Cuba back in December 2014.    The Obama administration announced a new Cuba policy to move toward normalization relationships between U.S. and Cuba, and reestablishing diplomatic relations with Cuba. We have got a law that already states how we go about that. It was the Cuban Liberty and Solidarity Act of 1996. And it states in there that once Cuba moves toward normalizing their government in a transitional government and having a Democratic process, we will move into that direction. We haven't done that. And so, again, we see a situation where we are putting the cart before the horse. And once you get to that point, it is hard to go back.    In addition to that, when President Obama talked about normalizing this is a failed policy after 50 years is what he has felt like with our policies toward Cuba. I look back at what Raul Castro said; he started making demands on us wanting to normalize relationships with Cuba. I have got to give him credit for having that kind of gravitas--I won't say another word--but for him to have that kind of a backbone and say: You are not going to normalize relationships with us until you do this. I think, wait a minute, we are the ones with the cookie. We are the ones that, had we followed through on the sanctions that were put in place and put more pressure on countries that were dealing with Cuba, it might have had a different outcome, and we might have a transitional government in place.    And I look and I understand where you guys are coming from, and I stand 100 percent with you. Before we move forward, these things have to be negotiated. And they should be at the negotiating table before we start normalizing relationships with Cuba. I would think that we would--we would be the ones in the driver's seat. We are the ones that should be dictating that we will normalize these relationships with Cuba if you compensate people for property that was stolen.    Coming from Florida, I lived in south Florida growing up, and we have just had a tremendous amount of Cuban friends, hard-working people--I live up in north central Florida now. The Cuban population is everywhere, great people, hard-working, and they love their country, their ancestry. We want to make sure that, as we move forward, that we take care of those things. I think that anything that this body does--speaking for myself, not for this committee--anything that we do in government here should be to make sure that that wrong gets righted so that the people that had that property stolen gets put back into their hands. And thank you.    I have got a few questions here. Adequate compensation for U.S. claims: What would a responsible and just outcome look like for the thousands of Americans who have had their property stolen--and we will use the word ``stolen''--by the Castro regime? Dr. Garcia.</t>
   </si>
   <si>
@@ -380,9 +344,6 @@
   </si>
   <si>
     <t>412595</t>
-  </si>
-  <si>
-    <t>Robin L. Kelly</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Kelly. I don't really have a question, but just to say that I represent a family who had a textile business, Flamingo Knitting Mills, and was seized in 1959 in Havana. So the issue of normalizing relations is quite personal to this family as it is to so many families in America. And even, you know, okay, they get a lump-sum payment, but even if they got the property back, the property is something else now, so what would they do with it? They can't kick--they wouldn't kick people out, or you know, it still wouldn't be the same from before.</t>
@@ -793,11 +754,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -817,13 +776,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -845,11 +802,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -869,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -897,11 +850,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -921,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -949,11 +898,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -973,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1001,11 +946,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1025,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1053,11 +994,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1077,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1105,11 +1042,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1129,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1157,11 +1090,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1181,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1209,11 +1138,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1233,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1261,11 +1186,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1285,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1313,11 +1234,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1337,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1365,11 +1282,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1389,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1417,11 +1330,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1441,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1469,11 +1378,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1493,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1521,11 +1426,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1545,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1573,11 +1474,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1597,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1625,11 +1522,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1649,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1675,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1701,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1727,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1753,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1779,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1805,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1833,11 +1714,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1857,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" t="s">
-        <v>61</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1885,11 +1762,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1909,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1935,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1961,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1989,11 +1858,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2013,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2041,11 +1906,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2067,11 +1930,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2091,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2119,11 +1978,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2143,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>76</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2171,11 +2026,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2195,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>79</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2223,11 +2074,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2247,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2275,11 +2122,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2299,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
-      </c>
-      <c r="G60" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2325,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2351,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2377,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2403,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2429,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2455,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2481,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2507,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2533,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2559,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>85</v>
-      </c>
-      <c r="G70" t="s">
-        <v>86</v>
-      </c>
-      <c r="H70" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2585,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2611,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2637,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2663,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>76</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2689,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2715,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>76</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2741,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>79</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2767,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2793,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2819,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2845,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2871,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>85</v>
-      </c>
-      <c r="G82" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2897,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
-      </c>
-      <c r="G83" t="s">
-        <v>61</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2923,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2949,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85" t="s">
-        <v>61</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2975,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3001,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
-      </c>
-      <c r="G87" t="s">
-        <v>61</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3027,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>73</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3053,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89" t="s">
-        <v>61</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3079,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>76</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3105,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
-      </c>
-      <c r="G91" t="s">
-        <v>61</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3131,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>76</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3157,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>85</v>
-      </c>
-      <c r="G93" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3183,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>121</v>
-      </c>
-      <c r="G94" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3209,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>76</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3235,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>121</v>
-      </c>
-      <c r="G96" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3261,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>85</v>
-      </c>
-      <c r="G97" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95131.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95131.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order, and I would now like to recognize myself for an opening statement. Before I do, I will mention that votes will be called during this hearing, and we will adjourn. We will see how far we get, and then we will adjourn and possibly come back. And if we get far enough, we may just adjourn the hearing all together. But we will just see how far we get.    Also, I want to ask unanimous consent for Tom Rooney from Florida, to sit on the dais when he gets here and offer a statement.    Without objection, so ordered.    As a businessman who is involved in the real estate industry, I have a keen level of interest in today's subcommittee hearing to examine the issues of property rights in Cuba, and U.S. and Cuban property claims against the Castro regime. I believe that in the Obama administration's zeal to engage the Castro regime at any cost, we have lost sight of a critical issue that has not received the priority that it deserves. Thousands of Americans and Cuban citizens suffered humiliation and financial distresses of having their private property stolen from them, some of them at gunpoint. Today there has been no justice for that their claims.    Lest we forget, I think it is important for the American people to remember what led in part the U.S. embargo against Cuba. In 1959, Fidel Castro brutally seized power and quickly nationalized the American-dominated sugar and mining industries. He froze bank accounts and confiscated property from thousands of both Cuban and American citizens and businesses in what the Inter-American Law Review called the largest uncompensated taking of American property by a foreign government in history.    This stealing of American private property in part led the U.S. severing diplomatic relations with Cuba in 1961 and enacting a trade embargo and sanctions. In 1964, President John F. Kennedy signed a bill into law authorizing the U.S. Foreign Claims Settlement Commission to begin a Cuba program to address the claims of U.S. citizens against the Castro regime. Since that time, the Commission has adjudicated almost 8,900, 8,900 U.S. claims, finding almost 6,000 of those claims to be certified. When we look at the financial value of these claims today, the total cost comes to over $6 billion.    Now the Obama administration's reengagement with the Communist Castro regime, restoration of diplomatic ties, and pursuit of normalized relations have been performed ostensibly to empower the Cuban people. However, I have not seen any evidence of things getting better for the Cuban people. In fact, since December's announcement, we have seen almost a 120-percent increase in the number of Cubans fleeing to the United States; over 3,000 political arrests by the Castro regime; spikes in violence against democracy activists; and re-arrest of most of the 53 political prisoners who were released as part of the December agreement.    The American people who decided to travel to Cuba under the relaxed Obama administration rule should at least be aware that their decision to spend money on Cuban hotels, tourism, rum, or cigars directly props up the Communist military intelligence services and human rights abusers in the Castro regime. Americans should know that the hotel they vacation in may very well be a property that was stolen from an American citizen.    As I stated at our last subcommittee hearing on Cuba back in February, I strongly oppose the Obama administration's decision to normalize relations with the oppressive Communist Cuba Castro regime. U.S. law requires a change of the very nature of the regime through the establishment of democracy and allowance of freedom. U.S. law also requires the resolution of property claims issue.    In 1996, Congress expressed its intent in the Libertad Act stating that the satisfactory resolution of property claims by the Cuban Government recognized by the United States remains an essential condition for the full resumption of economic and diplomatic relations between the United States and Cuba. That Libertad Act is not being followed by the Obama administration.    If we are truly going to reengage with the Communist Castro regime, then I believe it is critical that we not only follow U.S. law, but for the purposes of upholding the rule of law worldwide, we negotiate only from a position of strength on the issue of property claims. Should we fail to do that, I fear that we would be setting a terrible example and signaling to other bad actors around the world that they will face no consequences for stealing American property. This would be a terribly harmful message to send.    Last year I had the privilege of traveling with the full committee Chairman Royce, Ed Royce, and Ranking Member Engel in a bipartisan delegation to South America, where we visited some of our best partners in the hemisphere, including Colombia and Peru. During our visit to Peru, I was personally delighted to sit with award-winning Peruvian economist Hernando de Soto one evening over dinner. Hernando is known best for his work on the informal economy and on the importance of business and property rights. The main message of de Soto's work and writings is that no nation can have a strong market economy without adequate participation in an information framework that records ownership of property and other formal economic activity.    It is in this spirit that I wanted to convene this hearing today because, in Cuba, most of what passes for economic activity is simply informal opportunities for the Castro brothers and the Cuban military to siphon off money to prop themselves up, spy on their people, deny basic human rights, and beat and torture people who disagree with them.    So, in conclusion, the future of property rights in Cuba and the issue of U.S. claims against the Communist Castro regime should not be forgotten in any U.S.-Cuba reengagement. These issues impact not only U.S. business claimants with the highest amounts of certified law, such as Cuba Electric Company, North American Sugar Industries or Moa Bay Mining Company; these issues also have devastated individuals and families for generations.    Today I hope that experiences that the witnesses will share will inform our actions, offer constructive ideas on what a responsible and just outcome on this issue would involve, and motivate the Obama administration to prioritize the needs of the American people above a legacy achievement with the Communist Castro regime. This hearing could not come at a more important time as recent press reports have indicated that the Obama administration has already made key concessions on limiting American diplomats' activities and a possible future Embassy in Havana, which follows its removal of Cuba from the State Sponsors of Terrorism list last month even though Cuba continues to harbor terrorists and proliferate weapons to bad actors around the world.    With that, I look forward to hearing from our two panels of witnesses today, and I will now turn to the ranking member, Mr. Albio Sires, for his opening statement.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, and thank you for holding this hearing. And I strongly concur with a lot of the comments that you made.    We are here to bring attention to how the Castro brothers have confiscated thousands of properties from U.S. companies and Cuban citizens in the early years of the revolution. Before the expropriation began, over two-thirds of the Cuban economy was owned by private entities, many of whom were Americans. The Castro brothers started taking ranches and farms just months after Castro came into power and quickly moved to U.S.-owned oil refineries and other properties.    Castro seized everything in sight, including 2 million acres of land, electric companies, the mining industry, warehouses, hotels, private properties, and bank accounts. Additionally, they seized almost all assets of Cuban nationals between 1959 and 1968.    The Foreign Claims Settlement Commission has certified over 5,000 claims and, when combined with interest, total almost $8 billion. As the administration continues to normalize relationships with Cuba, we must take time to reexamine these claims and see how we can get justice for these claimants before further inroads are made between Cuba and the U.S.    Many of the confiscated properties have been sold and resold, their owners deceased, and now their families are left fighting on their behalf. Most families were never able to recover either financially or mentally. Being forced to give up their homes, essential belongings, and millions of dollars worth of investments cannot go unanswered.    How can U.S. businesses open up economic cooperation with a government who profited on the back of other people's hard work? Not only is it immoral to profit off of these stolen properties, but Cuba's past disregard for property rights creates an unstable investment climate for private businesses. There is no way to ensure that the Cuban regime won't swoop in and confiscate more properties or renegate--or renege on its so-called contracts. We must examine how a shift in relationship with Cuba will impact these long outstanding claims.    The issue of confiscated properties by the Cuban regime has always been a major hurdle in normalizing the relationships with Cuba. Just because the administration has shifted the strategy doesn't mean we should detract from our effort to find an equitable and long overdue solution for the victims. Today we will be able to hear from experts from the Foreign Settlements Commission that have gone through the efforts of certifying these claims as well as victims whose families have lost their homes and businesses to the Castro regime's greed. I look forward to hearing from our panelists on how we can address these critical issues.    Thank you.</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Rooney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rooney. Thank you, Mr. Chairman, and I will be brief. I will just say that I appreciate you having this hearing to the panel members that are here. You know, what brought this about for me was, as a Member of the Florida delegation, going to law school at the University of Miami and getting to meet some of the constituents or some of the citizens that lived down there and coming to recognize that as naive as I was at that point, that a lot of the people that I met were actually people that lived in Cuba, that left--that the ranking member was speaking of--thinking that some day, some day soon after they left Cuba, that they would lock their doors and that they would be back relatively in short order.    And it just dawned on me talking to these people, who are a little bit older now, that they really believe something that if that would happen to American citizens, something so fundamental that you owned this property or you owned this business, and for whatever reason, you had to leave, and you turned around and locked the door behind you thinking that I will be back in a couple of days or a week or at the most, you know, a month, but that that which I built, that which I owned, something so dear to us as Americans as our property rights, would be mine again. And to have that decades, decades go by, and to not be able to return to that which is rightfully yours, for us to say that we are going to ease restrictions in Cuba and not follow the law, as Mr. Duncan referred to the 1996 Libertad law, I think would be unconscionable and something so unfair as we know it as Americans is to deprive people of their rightful property.    And a lot of people, even people on my side of the aisle, sometimes say: What is the difference between Cuba and China and other Communist countries that we do business with? I mean, after all, it has been a long time. Let's just forget about it and move on.    The difference is that I have constituents, people that are alive and well, that owned property in Cuba, that left, that live in the State of Florida, that belief that our Government will take care of them, that are citizens now, but when they ease restrictions with Cuba, that when we do that as a government, we are going to follow U.S. law, and we are going to demand that this President first recognize by forcing the Castro regime to recognize the property rights of those people that are still alive today, living in Florida, that are constituents, and that it is our responsibility as their elected officials to make sure we follow the law.    So when people ask you, ``What is the difference between China and other Communist countries that we do business with and Cuba?'' the difference is, is that they are our constituents, and we owe it to them to enforce the law, to follow the law, and to live the American spirit, which is property rights. That goes back to our very founding. And if we don't do that, then we are, I think, neglecting the very fabric of what this country is.    So I really appreciate as we--as this administration decides to move forward in easing restrictions, if they are going to do that, the very first step in making what past wrongs there were right would be to make sure that our constituents in the State of Florida and across this country are made whole again by that which was taken from them, their property in Cuba.    So, Mr. Chairman, Mr. Ranking Member, thank you for letting me sit in today. I appreciate you hearing this bill.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. I want to thank the gentleman from Florida for his comments and remind other members that opening statements may be submitted for the record.    Before I recognize the panel, let me just explain the lighting system. You have got 5 minutes. The light will be green until it gets to 1 minute. It will turn yellow, and then when you are out of time, it will be red. At that point in time, if you could just wrap up your final statement. And you have submitted your testimony for us beforehand, which we have had the opportunity to read, and so if you don't get through the complete statement, we have it. We have read it. We are understanding.    But we want to get you on the record verbally, so I will now recognize our panelists, and our first panelist is Mr.--if I pronounce this wrong--Tamargo.</t>
   </si>
   <si>
+    <t>Tamargo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tamargo. Tamargo.</t>
   </si>
   <si>
@@ -85,6 +106,9 @@
     <t xml:space="preserve">    Mr. Duncan. I thank the gentleman.    In my haste, I failed to mention the biographies of the witnesses and panelists are in our binders, and we have had the opportunity to read through those.    Mr. Bradley, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Bradley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bradley. Yes, sir. Thank you. Good morning, Mr. Chairman, members of the subcommittee, thank you for inviting me. You have my bio, so you know I retired from Federal service in 2008 after 20 years as chief counsel with the Foreign Claims Settlement Commission. I am pleased to be invited here today to say some words about the Commission's Cuba claims adjudication program.    As we know, following the overthrow of the Batista regime in Cuba and Fidel Castro's takeover on January 1, 1959, the Castro regime began a comprehensive drive to seize business enterprises, assets, and other private property on the island. Given the extensive American involvement in Cuba's economy at the time, American companies and individuals were particularly affected by these actions. Some of the takings were overt, such as the outright nationalization of certain industries under law 1076 of December 5, 1962, and the expropriations under law 851 of July 6, 1960, which were directed toward Cuban concerns in which Americans held majority interest. In addition, all properties of persons who had left Cuba were confiscated under law 989 of December 6, 1961.    Other takings were more subtle such as administrative requirements placed on mining and oil concession holders to reregister their concessions under circumstances that made compliance impossible.    One of the first U.S. responses to these actions was an effort by Senator Bourke Hickenlooper to amend the Foreign Assistance Act of 1961 to impose a trade embargo on Cuba and prohibit the furnishing of foreign assistance to the ``present Government of Cuba.'' However, the amendment was not enacted, and the Department of Treasury did not move to freeze Cuban assets in the United States until July 1963. Consequently, most of those assets, possibly as much as $500 million had already been transferred out of the country, primarily to Canada, by the time the blocking took place.    In October 1964, Congress passed, as you mentioned, House of Representatives bill H.R. 12259, which became Public Law 88666 and is codified as title V of the International Claims Settlement Act of 1949, as amended. The statute authorized and directed the Foreign Claims Settlement Commission to determine the validity and amount of U.S. nationals' claims against Cuba for expropriation and other taking of property and other assets affected on or after January 1, 1959, and certify its findings of the amounts of the losses sustained to the Secretary of State. In addition, the Commission was authorized and directed to determine the validity and amount of claims against Cuba for disability or death of U.S. Citizens resulting from actions taken by or under the authority of the Cuban Government.    The purpose of the adjudication process was to compile a record of the claims which could eventually serve as the basis for a lump-sum settlement agreement with a future Cuban Government. The period for filing claims officially commenced November 1, 1965, and was to end on May 1, 1967. By law, the program was to be completed as of May 1, 1970. However, due to budget cuts from Fiscal Year 1969, the program could not be completed by the statutory time, and further legislation was finally obtained which extended it to July 6, 1972.    As has been mentioned, a total of 8,816 claims were evaluated in the course of the program. Of these, 5,911 were certified as valid with a total value of over $1.8 billion, not including interest. Adding the interest component, the claims come to over $7.6 billion in worth.    I should also mention that two small--two additional claims were certified by the Commission in 2006 in a small second program we conducted at the request of the Secretary of State. Of the claims, over $1.6 billion was certified in the names of 898 American corporations, with 5,913 totaling $221 million certified in the names of individuals.    We had 131 certifications in excess of $1 million, and the largest certification, in favor of the Cuban Electric Company, amounted to over $267.5 million in principal amount.    This concludes my statement, and I will be happy to try to answer any questions you may have.</t>
   </si>
   <si>
@@ -184,6 +208,12 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Thanks to the witnesses.    You know, it is puzzling to me dealing with the Cuba issue. We deal a lot with the Iran issue on this full committee, and it seems to be that the policies that the administration pursues are basically unilateral concessions to bad regimes. And, really, that serves as a detriment of the populations in those countries.    I mean, in Iran, there is a green movement that was really threatening the viability of the regime. The administration chose to not embrace that because they wanted to try to have a better relationship with the ayatollahs, and what we have seen since then is us engage in a lot of negotiations on a nuclear issue where it has been concession after concession, and it doesn't seem like we have received much as a result.    And I think the same thing with the Cuba issue, the policy is really a lifeline to the Castro regime and to the brothers and to the military. It is not doing anything to benefit the Cuban people. It is further solidifying the regime, and we are not getting, I mean, what have we received in the United States for these new policies? You know, we haven't received anything of note. They are still harboring terrorist fugitives in Cuba, people who are enemies of the country.    So it is really, really frustrating and the property to me is just an easy issue because if you are having a new relationship and you want to have--and the regime is going to move toward openness, well, obviously, you give back the property. I mean, to me, that is just a bare minimum. And we haven't seen any property given back.    So this whole policy, I think, is not going to be successful, just as the Iranian policy is not going to be successful. I know that we are going to be voting, and I know we have another panel, so I really appreciate your testimony, both of you.    I will go ahead and yield back the balance of my time so we can move forward.</t>
   </si>
   <si>
@@ -193,6 +223,12 @@
     <t>412672</t>
   </si>
   <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Chairman.    That is the chairman's way of telling me be very brief. As my friend from Florida just said, there are people like Joanne Chesimard, who have escaped the justice system of our United States after killing a New Jersey State trooper, and we are not demanding her return before we negotiate. And the poor people of Cuba whose human rights are still being violated; we are not asking for anything in exchange. It seems like the regime is making all of the demands on our country.    So I just wanted to thank you first for coming here and addressing this important issue for the Cuban people, the residents there, and ask if you think there is anything else. I mean, you are well aware of what Congress is doing to try to rectify this wrong. Is there anything else that in your opinion should be done by this legislative body that will help this process along?</t>
   </si>
   <si>
@@ -214,24 +250,36 @@
     <t xml:space="preserve">    Mr. Duncan. We will go ahead and reconvene the hearing and welcome our second panel. Their biographies are in the information provided to the committee beforehand.    I will go ahead and recognize Dr. Garcia-Bengochea.</t>
   </si>
   <si>
+    <t>Garcia-Bengochea</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Garcia-Bengochea. Thank you and good morning.    My name is Javier Garcia-Bengochea. I am a neurosurgeon in Jacksonville, Florida. I'm here not to discuss the litany of atrocities emblematic of Cuba under a Castro but to testify about the importance of property. It is sufficient prologue to say that, in Cuba, virtually everything is stolen.    My family left Cuba when I was 15 months old, after Fidel Castro confiscated 386 Cuban businesses on October 14, 1960. One of these, La Maritima Parreno, established in 1919, was a commercial shipping port and warehouses in Cuba's second largest city, Santiago, and a privately held Cuban corporation in which we had significant ownership.    La Maritima and its president, my cousin Desi Parreno, had supported the revolution in its difficult early days. Fearing arrest if he challenged the dictatorship, Desi left Cuba the following day, having transformed from progressive to conservative overnight.    A Princeton graduate and valedictorian of his 1938 class, Desi was no rube. He understood the impact of the confiscations on the rule of law and order. Like my parents, he feared civil war. Four days later President Eisenhower initiated sanctions that became the embargo. Eventually, Desi's brother, Alberto, an American citizen and New York lawyer would receive certification from the U.S. Treasury for his loss.    The world would isolate Cuba only to resume relations after settling the relatively small international claims. The claims of Americans and Cuban nationals, by far the largest groups, remained unsettled. These are the very reasons for the embargo, yet, incredibly, until today, they have yet to be mentioned, despite that Cuba has confiscated billions in foreign assets and incarcerated dozens of foreign executives, some without charges since 2008 alone.    Americans assume when they invest in Cuba clear title and basic protections will be in place. Nothing could be further from the truth. Contract sanctity, an independent judiciary, and transparent regulatory and enforcement agencies do not exist there.    Every American enterprise in Cuba, including tourism, will necessarily traffic in stolen properties, including brands and trademarks, maybe those of an American.    That has certainly been my experience. The State Department, for example, has occupied a penthouse apartment since 1977 in a building I own without my permission, much less payment at least.    At least two groups, Smith College and The Met, have received licenses to traffic in my port property.    Countless licensed travelers have paid admission to Havana's Museum of Fine Arts to view paintings stolen off the walls of our home.    Foreign entities Fred Olsen Cruise Lines and China Harbor Engineering Company do business in the U.S. while using my stolen port.    How is that right or even legal? The claims must be settled, or there will be conflict. Although Cuba is bankrupt, there are ways this can be accomplished. They can simply return the property, despite the unsavory proposition of partnering with totalitarians.    Cuba can pay with earns from state-owned tourism, rum, art, and tobacco sales. Remittences to Cuba supporting ventures using stolen property could be taxed. Anti-trafficking laws should be robust and enforced, like title IV in the visa application. Title III of Helms-Burton should no longer by waived. If a foreign terrorist who damages our property abroad can stand trial in U.S. court, so can foreign traffickers.    If Congress eliminates the embargo and leverages without a fair settlement, then the U.S. Government should contribute. So-called business groups such as Engage Cuba and the U.S. Chamber of Commerce, who disgracefully lobby to lift sanctions without considering the claim, should pay, as well as companies who profited from sales allowed to Cuba since 2003.    The claimants can receive tax credits and effectively pay themselves. The marketplace should be created to permit competitive bidding for the claims. When change, democracy comes, joint ventures and contract between the regime and foreigners will be canceled. Confiscated properties will be returned to the rightful owners.    Unfortunately, American enterprises that capitulate with Cuba's dictatorship will oppose change. We have linked their success to the survival of the Castro regime.    I will finish with an encounter in Cuba 2 years ago. Before the revolution, my father was Cuba's premier neurosurgeon and considered a pioneer of modern neurosurgical training there. I was invited to speak in a neurosurgery meeting in Havana, and after initially declining, I decided to attend. Ignatio, which is not his real name, owned a taxi service of vintage American cars. He was an IT specialist at a foreign firm in Cuba that closed after being robbed by the regime who overlooked turning off his Internet connection. He ordered parts online from the U.S. Brought in by mules and impeccably rebuilt his 1959 Bel Air. Upon congratulating him for his success, he expressed deep concern that, as others made money and spent conspicuously, they, the government, would confiscate everything ``when it was no longer convenient for them.'' In a surreal yet transcendent moment, he admitted he had become ``what you call in your country a conservative.''    Ladies and gentlemen, what is past is prologue. Unless the claims are settled, any American enterprise in Cuba will have the legitimacy of a drug deal. Trafficking and stolen property is not economic opportunity. It is not pro-business or normal. It is criminal and immoral. Property rights are the foundation of our economy and society. They promote competition through nonviolent and lawful means and define our human rights. Without them, there is no capitalism or economic development. A just claims settlement will protect future American businesses in Cuba and burgeoning Cuban entrepreneurs.    The strength of our relationship with Cuba will directly correlate with the strength of the claims and settlements. Indeed, these claims are a litmus test of government and civil society itself. Validating the kleptocracy will undoubtedly bring more confiscations and the prospect of sanctioning Cuba, an embargo, again. To paraphrase the prophet Isaiah: Peace is the work of justice, so too is normalization.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. I want to thank you for that testimony.    I want to thank all the witnesses for sharing their stories with us today.    I recognize Ms. Chester lamb.</t>
   </si>
   <si>
+    <t>Chester Lamb</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Chester Lamb. Thank you, Chairman Duncan, Ranking Member Sires, and members of the committee for your leadership and attention to this matter to Americans and throughout the United States. We have been waiting a long time.    My name is Carolyn Chester. I live in Omaha, Nebraska. I am a single, divorced mother of one teenaged son. And I have been the sole supporter of my family since 2010. I have a modest house. I live a modest lifestyle. And I drive a 16-year-old car.    I represent my family's claim, number 1704. My father was Edmond Chester, and he was the director of CBS News. But most of you probably have never heard of him. My father supervised famed reporters, such as Edward R. Murrow, Eric Sevareid, and Howard K. Smith, all recognizable names, but not his.    My father a true patriot and combatted communism as a soldier in World War I and an executive with CBS when he worked with our State Department's Office of Inter-American Affairs' Voice of America. When the Communists took Cuba, they also took over the radio stations, TV stations, newspapers, and they were able to manipulate and rewrite history. That is when the lies an slanders of those who were in Cuba before 1959 started.    My father's best friends were all patriots, and one of them was my godfather, General T. McInerney, who served as lieutenant colonel under General Eisenhower's staff and the director of public relations for the U.S. Department of Justice. Excuse me, I am a little nervous.    I was just 6 months old when my family's properties were taken. So I refer to the letter that my father wrote to the Foreign Claims Settlement Commission, which explains the circumstances. Their property was actually taken in January 1959, before Castro created laws to make it legal to steal. They took an 80-acre farm from the Isle of Pines, Cuban telephone stock, our cars, jewelry, furniture and all our personal possessions that were in our apartment in Miramar. My parents spoke frequently about Cuba and what happened to them, and they thought justice would be served during their lifetime, but it was not.    There was a time that our legislators and fellow Americans cared, but with time and memories passing, the confiscation has faded. It is almost as if the event has been erased from time and history. However, this still happened. It is very real, personal to us and just because it happened a long time ago does not mean it didn't happen because it did.    I know from speaking to people about the U.S. certified claims that most don't understand anything about it, but it is very simple: We are Americans who were living, working investing in Cuba when the Communists took over and took our properties. We were not at war with Cuba, and this was the first time in U.S. history that American properties were expropriated during peacetime. Families lost their livelihoods and suffered financial ruin for the loss of their possessions. Castro didn't just confiscate out properties, but he also took the hopes, dreams that our parents once had for our future. Excuse me.    The confiscation also affected my father's health. I was only 11 years old when his health began to decline. I remember that my father was in and out of hospital many times over the years, and my mother took care of him for many years, always hoping that he would improve. But he did not. Edmund Chester died 1973 when I was 15 years old. I never really knew what he died from, but looking back at it, I think it was from the Cuban loss and the stress. It caused him a series of strokes, and he also suffered from bouts of confusion. I remember one incident when I was just a little girl. He was frightened because he thought Castro's henchmen were in the house wanting to kill him, but nobody was there.    So it was not until much later on in life that I understood why he was so scared. In 1959, a group of Castro's men shot at our home as they drove into our driveway. I remember hearing about this when I got older, and I also remember seeing the bullet holes wall in our wall of our family home in Mount Dora, Florida. So his paranoia was not unwarranted.    After my father passed away, my mother was left alone to raise her children without any source of income. My mother did the best she could, and in the end, she sold everything, including personal items to survive and support us. We never faulted her for selling our inheritance in order to make ends meet. And in the end, we were left with debt to pay back her creditors. We didn't abandon our properties. They were taken from us. And in many cases, claimants' properties were taken at gunpoint by Castro's soldiers.    We didn't have any warning by our Government that the new Cuban Government was planning to steal our properties, yet apparently Castro's manifesto was writ 10 years ago and published in Mexico. He threatened that he would do this, and he did. And our Government failed to protect us, and now some 55 years later, here we are defending our claims. We are Americans who were the victims and not the culprits.    The notion that claimants should discount their claims in order to make way for commerce is unacceptable. We are not responsible for the economic failures of the communism since we have already paid with our family fortunes. Furthermore, punitive damages for the pain and suffering that this has caused our families, along with 55 years of waiting, should have been included in this determination of the value of our claims.    All foreign businesses have 50/50 partnerships with the Cuban Government, so that means profits are being split. So the United Kingdom and Canada, who are our allies, have enacted laws to protect their Cuban investments from our Helms-Burton Act. When a foreign company operating in Cuba opts--pays their workers' salaries, it must all go to the Cuban Government, who keeps 96 percent of it, leaving their worker with a pittance of their salary, and so they are treated as slaves.    The Cuban Government also collects loss of money skimming off the remittence sent by Cuban Americans to their relatives in Cuba. The Cuban Government does have a way to pay us back. They just don't want to because they are used to taking.    I know that many will still think that the Cuban Government is poor, and that's fine. But you must realize that once the floodgates of trade with the U.S. opens, there will be means to pay us back, and we will accept payments, as long as it is paid back in full.    It is also very disturbing for me to hear that those working uncomfortably close with the Cuban Government--Americans--tell us that we should only get pennies to our dollar. It is well-known fact that the junta running Cuba has hired expert international accountants and lawyers to hide their fortune in offshore accounts that can never be traced. Our Office of Foreign Asset Control has collected billions and billions in fines from banks and businesses that broke our laws. So a portion of that money should have been used to pay back the Americans.    Another solution would be to get another entity to pay our debt. There are a lot of U.S. conglomerates that are biting at the bit to do business with the Cubans. And if they want to get rid of us because they cause an obstacle, they should just pay--buy our debts and deal with the Castros themselves because we have been dealing with it for 55 years.    There is also Cuban money that was frozen a long time ago that should have been part of the legislation. But that was admitted. All we want is our payment for our claims set by the Foreign Claims Settlement. And I think 55 years of a lifetime is waiting too long.    Thank you for your attention in this matter. I am finally feeling like someone gives a damn. God bless you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Ms. Chester Lamb.    Ms. Rosoff, 5 minutes.</t>
   </si>
   <si>
+    <t>Rosoff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Rosoff. I'm here on behalf of my family, especially my mother, who is 80 and could not be here today. I am representing the three certified claims my family has filed with the Foreign Claims Settlement Commission.    Thank you, Mr. Chairman and members of the committee for the opportunity to share my family's story.    My grandfather, Morris Schechter, later called Mauricio, moved to Cuba in 1902. He started a business and was a founding member of the United Hebrew Congregation in Havana. In 1913, he married my grandmother, Jeannette, and they became pillars of the Cuban American Jewish community. Jeannette and Mauricio had four children, two of whom died in Cuba and are buried in Guanabacoa Jewish Cemetery that Mauricio helped consecrate in 1910.    My grandmother's house is the main part of CU-1458. My cousin, Robert Schechter, visited Cuba as part of a mission trip several years ago and was actually able to visit the house. At the time, and as far as I know to this day, it was being used by the Chinese Embassy. Claim CU-1090, filed by my father, Roy, is based on the value of stocks and business holdings, including a shirt factory and wholesale business, a farm, and a portion of my grandmother's house.    My father born June 1924 and attended Ruston Academy, a bilingual school. He later attended the University of Michigan but soon enlisted in the U.S. Army and fought in the Pacific theater during World War II. He returned to Cuba after the war and worked in the family business Compania Onyx, which manufactured clothing.    My father took over the business following the death of his father and older brother. In 1957, he married my mother, Lois Levine, and she joined him in Cuba. My maternal grandfather, Herbert Levine, also invested in Cuba and formed Rainbow Development Corporation, claim CU-611. This claim is comprised of attractive land that had timber and very pure silica sand. They grew tobacco, tomatoes, and built a saw mill that provided jobs for local residents. The Saw Mill was sabotaged during the revolution and set on fire. My mother said they think it was because they were Americans.    The last time my parents went to the farm, planning to do the payroll, they were met by armed soldiers, and after a brief discussion with them, my parents drove away, never to see the farm again. Immediately after the revolution, business was actually good. In fact, my father invested money in updating machinery at the factory. After about 6 months, however, Castro imposed regulations that made it impossible for the factory to be productive. Essential commodities, such as buttons and bindings, were impossible to find since they couldn't be imported. So they had no means to really make a living anymore.    Leaving Cuba was a very difficult decision for them, but since they couldn't make a living, they really felt they didn't have a choice. They paid off all of their debts so that when they could one day return to Cuba, they would be in good standing. They left on one of the last ferries to Key West in April 1961, taking only clothes with them.    My mother hid her wedding ring in a cloth diaper she stained with vanilla and smuggled it out in my brother's diaper bag. She figured that if the soldiers wanted to search a dirty diaper bag, they were welcome to her ring. They ended up in Nyack, New York, staying with my mother's parents.    My father had great difficulty finding a job and eventually went to work in my grandfather's shoe store. I grew up knowing that my father hoped he would one day return to Cuba, but he passed away in 2004. And I know a part of him is still in Cuba.    My grandmother, Jeannette, didn't plan on leaving Cuba, since her husband and two children were buried there in Guanabacoa. She left on what she thought was a vacation, but the political climate changed while she was in the States with family, and she couldn't return.    My grandmother was in her seventies, frail, and had left her home with virtually nothing. She settled in Miami and lived with her&lt;greek-l&gt;e deg. sister-in-law where they lived very frugally in a small apartment. She spent last years in a nursing home and passed away at the age of 96, heartbroken that she never returned from her vacation.    I would love to reclaim ownership of my grandmother's house. It is truly a family legacy and has great sentimental value to us. I don't know how realistic that is, but as far as the other two claims, I think that a fair, just financial settlement may be the best outcome. My father and grandmother had their homes, businesses, property, and investments stolen from them. There is no way to quantify it. Their lives were redefined without their consent and multiple generations of our family have been affected. When my father filed the claims, it was in good faith that they would be honored and settled fairly.    We look to you as our Representatives to champion--not just a new chapter in the political playbook--but to work side by side and as innovators in advocating justice. There is bound to be burgeoning opportunity in Cuba in the next few years, but it should not be at our expense. In this way, perhaps a plan can be crafted that ensures fair compensation to those of us who had property seized while also allowing investment in a brighter future for the Cuban people.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you so much for that testimony.    Ms. Anna-Lee Stangl.</t>
   </si>
   <si>
+    <t>Stangl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stangl. Good morning, thank you so much, Chairman Duncan, for allowing me to give this testimony this morning. And thank you to all those in attendance for your attention to this important issue.    Before I begin my testimony, I would like to ask that a set of letters from Cuban pastors to you, Chairman Duncan, be entered into the record.    Religious groups of all types, Catholic and Protestant as well as other religious groups in Cuba, saw many of their properties confiscated in the years following the revolution. The return of some of these properties has been a key focus area of talks in recent years between the Roman Catholic Church and the Cuban Government.    Other religious groups have also held dialogues with the Cuban Government with the same objective with varying degrees of success.    In recent years, the churches most vulnerable to the threat or act of government confiscation of their property have been what are usually referred to as house churches. Many are actual houses that have been converted by the owner at some point into a church. Others are buildings built more recently on private property and used exclusively as churches but without permits for religious activity.    Properties linked to unregistered religious groups are particularly vulnerable. One emblematic example have been the property located at Avellaneda 278 between San Esteban and San Martin Streets in the historic city center Camaguey. This property was acquired by the Reverend Omar Gude Perez and his wife Kenia Denis Bravo in 2003. A relatively large property for the location, it has acted as family home and place of worship. It is also a training center for church leaders from across the country who are affiliated with the Apostolic Movement, a charismatic Christian network of churches that authorities have refused to register.    Before leaving the country in 2013, having received asylum in the United States, Reverend Gude and wife officially transferred the property to their nephew, Reverend Yiorvis Bravo. The transfer was carried out legally, in line with Cuban laws. The transfer papers were in fact signed by government notary. Reverend Bravo Denis was already living in the property with his wife and small child and subsequently took over the church and religious training center.    In September 2013, the government summoned Reverend Bravo to a court hearing where they summarily found his ownership of the property to be invalid, despite the paperwork provided, and declared it belonged to the government. The government notary who had signed off on the transfer did not appear. Reverend Bravo refused to vacate the property and was subject to a day's long active repudiation.    Shortly thereafter, Reverend Bravo was summoned by housing ministry officials, who offered to allow him to stay on the property as a rent-paying tenant to the government if he agreed to submit all planned religious activities to the government in advance. The government set the rent for his own property at $300 per month, 15 times the annual salary for a Cuban.    He turned down this offer, refused to sign the papers, and stated his intention to remain in the property. To date, he has managed to do so, although the government has repeatedly declared that it still considers itself to be the owner of the building and reserves the right to evict the family any time. We believe they have not been evicted by force thus far because the case has received international attention. But the vulnerability of the family, who have been stripped of property rights, remains of great concern.    This year on May 21 the legal offices of Poblete Tamargo submitted a request for precautionary measures on behalf of Reverend Bravo to the Inter-American Human Rights Commission. Both Reverend Omar Gude and Yiorvis Bravo have submitted letters, which I mentioned earlier.    We regularly receive reports of threats of confiscation of properties from unregistered religious groups, such the Apostolic Movement, but the government is also guilty of targeting the property of historic and registered religious groups. The threat or act of confiscation of church properties has often appeared to be a tactic of the government to pressure or punish a church or larger denomination.    One of the most egregious cases was the 2012 retroactive nationalization of the historic property belonging to the Baptist Church in Yaguajay in the Province of Sancti Spiritus. The church is part of the Western Baptist Convention of Cuba, one of the largest historical and registered denominations in Cuba.    More recently, CSW has received worrying news that new legislation, which came into effect in January of this year, is being used to justify the arbitrary expropriation of private property, including religious properties. On the surface, legal decree 322, the general law on housing, appears to be meant to regulate private properties, mostly homes, and enforce zoning laws, following other reforms that affect property rights.    However, our contacts on the island say that the law is being used by government officials to claim the right to seize church properties and to force the churches into the role of paying tenants. You may recall this is identical to the offer made to Reverend Bravo in 2013 prior to the adoption of the law, which suggests that it is a strategy that has been in development for some time.    Cuban lawyers have told CSW that although the law does not specifically mention religious groups, government officials have claimed it gives them authority to expropriate property when they deem it necessary. To our knowledge, the largest church to be effected thus far by legal decree 322 is the Maranatha First Baptist Church in Holguin. This is another registered and historic religious property. Last month, the leadership of the church was informed by provincial Communist Party officials and housing ministry officials that their property was being confiscated and their status changed from owners to renters. The church has held title to the property since 1947, originally through the American Baptist Home Mission Society of Cuba, and was officially registered as part of the Eastern Baptist Convention of Cuba in May 1954. Leaders of the church have published an open letter calling for support as they resist government attempts to seize their property.    I am humbled to be here today, speaking on behalf of Cuban men and women who have for generations now maintained and cared for religious properties which have been and are sanctuaries for hundreds of thousands of Cubans in the face of great pressure and open hostility.    While this is a historic problem, it has not solely affected religious properties. It is also a current problem of ongoing violations. Much attention has been given to Raul Castro's announced property reforms, but less attention has been given to the detail of these reforms and their impact, potential and real, on ordinary Cubans. This subcommittee has a key role to play in putting a spotlight on those details and highlighting how, even today, Cubans continue to be vulnerable to the arbitrary expropriation of their property by government.    Even as the administration continues to pursue a dialogue with the Cuban Government, it is key that human rights, including property rights and religious freedom, be a central component of that dialogue. I would respectfully ask that the members of this subcommittee continue to hold the administration accountable for the content of the dialogue and any agreements. And at the same time, you make it clear to the Cuban Government, through statements or letters, these actions are not going unnoticed. Thank you.</t>
   </si>
   <si>
@@ -241,6 +289,12 @@
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho [presiding]. I appreciate your being here and testifying. And I hear your stories, and it rips at the heartstrings. And, you know, being here on this panel of Foreign Affairs, over the last 2 years, we have heard these stories about Cuba and what is going on. And I find it disheartening that this administration announced normalizing relationships with Cuba back in December 2014.    The Obama administration announced a new Cuba policy to move toward normalization relationships between U.S. and Cuba, and reestablishing diplomatic relations with Cuba. We have got a law that already states how we go about that. It was the Cuban Liberty and Solidarity Act of 1996. And it states in there that once Cuba moves toward normalizing their government in a transitional government and having a Democratic process, we will move into that direction. We haven't done that. And so, again, we see a situation where we are putting the cart before the horse. And once you get to that point, it is hard to go back.    In addition to that, when President Obama talked about normalizing this is a failed policy after 50 years is what he has felt like with our policies toward Cuba. I look back at what Raul Castro said; he started making demands on us wanting to normalize relationships with Cuba. I have got to give him credit for having that kind of gravitas--I won't say another word--but for him to have that kind of a backbone and say: You are not going to normalize relationships with us until you do this. I think, wait a minute, we are the ones with the cookie. We are the ones that, had we followed through on the sanctions that were put in place and put more pressure on countries that were dealing with Cuba, it might have had a different outcome, and we might have a transitional government in place.    And I look and I understand where you guys are coming from, and I stand 100 percent with you. Before we move forward, these things have to be negotiated. And they should be at the negotiating table before we start normalizing relationships with Cuba. I would think that we would--we would be the ones in the driver's seat. We are the ones that should be dictating that we will normalize these relationships with Cuba if you compensate people for property that was stolen.    Coming from Florida, I lived in south Florida growing up, and we have just had a tremendous amount of Cuban friends, hard-working people--I live up in north central Florida now. The Cuban population is everywhere, great people, hard-working, and they love their country, their ancestry. We want to make sure that, as we move forward, that we take care of those things. I think that anything that this body does--speaking for myself, not for this committee--anything that we do in government here should be to make sure that that wrong gets righted so that the people that had that property stolen gets put back into their hands. And thank you.    I have got a few questions here. Adequate compensation for U.S. claims: What would a responsible and just outcome look like for the thousands of Americans who have had their property stolen--and we will use the word ``stolen''--by the Castro regime? Dr. Garcia.</t>
   </si>
   <si>
@@ -344,6 +398,12 @@
   </si>
   <si>
     <t>412595</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Robin</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Kelly. I don't really have a question, but just to say that I represent a family who had a textile business, Flamingo Knitting Mills, and was seized in 1959 in Havana. So the issue of normalizing relations is quite personal to this family as it is to so many families in America. And even, you know, okay, they get a lump-sum payment, but even if they got the property back, the property is something else now, so what would they do with it? They can't kick--they wouldn't kick people out, or you know, it still wouldn't be the same from before.</t>
@@ -704,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,7 +772,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,2309 +794,2710 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G82" t="s">
+        <v>91</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>55</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G83" t="s">
+        <v>64</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>55</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G85" t="s">
+        <v>64</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>55</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G87" t="s">
+        <v>64</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>55</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G89" t="s">
+        <v>64</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>55</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G91" t="s">
+        <v>64</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>74</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G93" t="s">
+        <v>91</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G94" t="s">
+        <v>128</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G96" t="s">
+        <v>128</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>74</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G97" t="s">
+        <v>91</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="I97" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95131.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95131.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Duncan</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sires</t>
   </si>
   <si>
@@ -206,6 +215,9 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>DeSantis</t>
@@ -764,7 +776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,7 +784,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,2707 +809,2916 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>87</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H60" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>78</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>82</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>82</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>78</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>81</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>84</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>88</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>87</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G82" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H82" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G83" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H83" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G85" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H85" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>78</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G87" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H87" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H89" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>81</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G91" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H91" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>81</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G93" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H93" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G94" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="H94" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>81</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G96" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="H96" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G97" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H97" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I97" t="s">
-        <v>133</v>
+        <v>96</v>
+      </c>
+      <c r="J97" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
